--- a/Others/Insentive/May'21/Commission Summary(3).xlsx
+++ b/Others/Insentive/May'21/Commission Summary(3).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akmmhuq\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\YVQYOPV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7605"/>
   </bookViews>
@@ -218,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -622,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -657,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -834,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1599,35 +1596,35 @@
         <v>42</v>
       </c>
       <c r="D36" s="33">
-        <f>SUM(D35:D35)</f>
+        <f t="shared" ref="D36:K36" si="4">SUM(D35:D35)</f>
         <v>6124</v>
       </c>
       <c r="E36" s="33">
-        <f>SUM(E35:E35)</f>
+        <f t="shared" si="4"/>
         <v>7079</v>
       </c>
       <c r="F36" s="33">
-        <f>SUM(F35:F35)</f>
+        <f t="shared" si="4"/>
         <v>6810</v>
       </c>
       <c r="G36" s="33">
-        <f>SUM(G35:G35)</f>
+        <f t="shared" si="4"/>
         <v>8390</v>
       </c>
       <c r="H36" s="33">
-        <f>SUM(H35:H35)</f>
+        <f t="shared" si="4"/>
         <v>28403</v>
       </c>
       <c r="I36" s="33">
-        <f>SUM(I35:I35)</f>
+        <f t="shared" si="4"/>
         <v>2840.3</v>
       </c>
       <c r="J36" s="33">
-        <f>SUM(J35:J35)</f>
+        <f t="shared" si="4"/>
         <v>25562.7</v>
       </c>
       <c r="K36" s="33">
-        <f>SUM(K35:K35)</f>
+        <f t="shared" si="4"/>
         <v>25562.7</v>
       </c>
       <c r="L36" s="33"/>
